--- a/5. Other/TONG_HOP_TON_KHO.xlsx
+++ b/5. Other/TONG_HOP_TON_KHO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BA08D-B0CB-404A-BAF9-8AA171990740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D7E27-97D6-4041-BEC2-B763FE0F16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
